--- a/CIS-Windows-Server-2022.xlsx
+++ b/CIS-Windows-Server-2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nico.schmidt\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CA30EB-5497-4A4C-9BDD-F8201475082D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0445EF6-FE49-4F91-B7D1-80036F17C817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="57600" windowHeight="20025" xr2:uid="{6D39C17B-C148-45FB-88E6-9914002BB62D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6D39C17B-C148-45FB-88E6-9914002BB62D}"/>
   </bookViews>
   <sheets>
     <sheet name="CIS Windows Server 2022 v1.0.0" sheetId="1" r:id="rId1"/>
@@ -2494,7 +2494,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2562,6 +2562,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2592,9 +2612,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2624,11 +2645,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2640,9 +2660,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2660,7 +2677,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2672,10 +2688,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="2" xr:uid="{F7CDA875-6A32-4001-AB54-333227793649}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2691,9 +2715,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2731,7 +2755,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2837,7 +2861,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2979,7 +3003,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2989,9 +3013,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42DB50BF-856E-4B09-82A9-B1D3B9A7E638}">
   <dimension ref="A1:D416"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C353" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B210" sqref="B210"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="145.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="145.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="191.28515625" bestFit="1" customWidth="1"/>
@@ -2999,12 +3025,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" t="s">
         <v>754</v>
       </c>
       <c r="B2" s="3"/>
@@ -3014,7 +3040,7 @@
       <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="23" t="s">
         <v>812</v>
       </c>
       <c r="B4" s="3"/>
@@ -3028,7 +3054,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="26" t="s">
         <v>818</v>
       </c>
       <c r="B6" t="s">
@@ -3036,7 +3062,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="21" t="s">
         <v>810</v>
       </c>
       <c r="B7" t="s">
@@ -3044,7 +3070,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="25" t="s">
         <v>816</v>
       </c>
       <c r="B8" t="s">
@@ -3052,7 +3078,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="22" t="s">
         <v>811</v>
       </c>
       <c r="B9" t="s">
@@ -3060,14 +3086,14 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="9"/>
     </row>
     <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="23" t="s">
         <v>752</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="24" t="s">
         <v>751</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -3460,10 +3486,10 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="30" t="s">
+      <c r="A47" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="B47" s="29" t="s">
+      <c r="B47" s="26" t="s">
         <v>71</v>
       </c>
       <c r="C47" s="6" t="s">
@@ -4120,10 +4146,10 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="30" t="s">
+      <c r="A107" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="B107" s="29" t="s">
+      <c r="B107" s="26" t="s">
         <v>191</v>
       </c>
       <c r="C107" s="6" t="s">
@@ -4164,10 +4190,10 @@
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="30" t="s">
+      <c r="A111" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="B111" s="29" t="s">
+      <c r="B111" s="26" t="s">
         <v>199</v>
       </c>
       <c r="C111" s="6" t="s">
@@ -4480,10 +4506,10 @@
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="30" t="s">
+      <c r="A139" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="B139" s="29" t="s">
+      <c r="B139" s="26" t="s">
         <v>253</v>
       </c>
       <c r="C139" s="6" t="s">
@@ -4698,7 +4724,7 @@
       <c r="A160" s="7" t="s">
         <v>774</v>
       </c>
-      <c r="B160" s="11" t="s">
+      <c r="B160" t="s">
         <v>775</v>
       </c>
       <c r="C160" s="6" t="s">
@@ -4709,7 +4735,7 @@
       <c r="A161" s="7" t="s">
         <v>776</v>
       </c>
-      <c r="B161" s="11" t="s">
+      <c r="B161" t="s">
         <v>777</v>
       </c>
       <c r="C161" s="6" t="s">
@@ -4720,7 +4746,7 @@
       <c r="A162" s="7" t="s">
         <v>778</v>
       </c>
-      <c r="B162" s="11" t="s">
+      <c r="B162" t="s">
         <v>779</v>
       </c>
       <c r="C162" s="6" t="s">
@@ -4731,7 +4757,7 @@
       <c r="A163" s="7" t="s">
         <v>780</v>
       </c>
-      <c r="B163" s="11" t="s">
+      <c r="B163" t="s">
         <v>781</v>
       </c>
       <c r="C163" s="6" t="s">
@@ -4742,7 +4768,7 @@
       <c r="A164" s="7" t="s">
         <v>782</v>
       </c>
-      <c r="B164" s="11" t="s">
+      <c r="B164" t="s">
         <v>783</v>
       </c>
       <c r="C164" s="6" t="s">
@@ -4753,7 +4779,7 @@
       <c r="A165" s="7" t="s">
         <v>784</v>
       </c>
-      <c r="B165" s="11" t="s">
+      <c r="B165" t="s">
         <v>785</v>
       </c>
       <c r="C165" s="6" t="s">
@@ -4764,7 +4790,7 @@
       <c r="A166" s="7" t="s">
         <v>786</v>
       </c>
-      <c r="B166" s="11" t="s">
+      <c r="B166" t="s">
         <v>787</v>
       </c>
       <c r="C166" s="6" t="s">
@@ -4775,7 +4801,7 @@
       <c r="A167" s="7" t="s">
         <v>788</v>
       </c>
-      <c r="B167" s="11" t="s">
+      <c r="B167" t="s">
         <v>789</v>
       </c>
       <c r="C167" s="6" t="s">
@@ -4786,7 +4812,7 @@
       <c r="A168" s="7" t="s">
         <v>790</v>
       </c>
-      <c r="B168" s="11" t="s">
+      <c r="B168" t="s">
         <v>791</v>
       </c>
       <c r="C168" s="6" t="s">
@@ -4797,7 +4823,7 @@
       <c r="A169" s="7" t="s">
         <v>792</v>
       </c>
-      <c r="B169" s="11" t="s">
+      <c r="B169" t="s">
         <v>793</v>
       </c>
       <c r="C169" s="6" t="s">
@@ -5223,10 +5249,10 @@
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" s="12" t="s">
+      <c r="A208" s="11" t="s">
         <v>794</v>
       </c>
-      <c r="B208" s="13" t="s">
+      <c r="B208" s="12" t="s">
         <v>795</v>
       </c>
       <c r="C208" s="6" t="s">
@@ -5234,10 +5260,10 @@
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="12" t="s">
+      <c r="A209" s="11" t="s">
         <v>796</v>
       </c>
-      <c r="B209" s="13" t="s">
+      <c r="B209" s="12" t="s">
         <v>797</v>
       </c>
       <c r="C209" s="6" t="s">
@@ -5245,10 +5271,10 @@
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" s="12" t="s">
+      <c r="A210" s="11" t="s">
         <v>798</v>
       </c>
-      <c r="B210" s="13" t="s">
+      <c r="B210" s="12" t="s">
         <v>799</v>
       </c>
       <c r="C210" s="6" t="s">
@@ -5256,10 +5282,10 @@
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" s="12" t="s">
+      <c r="A211" s="11" t="s">
         <v>800</v>
       </c>
-      <c r="B211" s="13" t="s">
+      <c r="B211" s="12" t="s">
         <v>801</v>
       </c>
       <c r="C211" s="6" t="s">
@@ -5267,10 +5293,10 @@
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" s="12" t="s">
+      <c r="A212" s="11" t="s">
         <v>802</v>
       </c>
-      <c r="B212" s="13" t="s">
+      <c r="B212" s="12" t="s">
         <v>803</v>
       </c>
       <c r="C212" s="6" t="s">
@@ -5278,10 +5304,10 @@
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" s="12" t="s">
+      <c r="A213" s="11" t="s">
         <v>804</v>
       </c>
-      <c r="B213" s="13" t="s">
+      <c r="B213" s="12" t="s">
         <v>805</v>
       </c>
       <c r="C213" s="6" t="s">
@@ -5289,10 +5315,10 @@
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="30" t="s">
+      <c r="A214" s="27" t="s">
         <v>352</v>
       </c>
-      <c r="B214" s="29" t="s">
+      <c r="B214" s="26" t="s">
         <v>353</v>
       </c>
       <c r="C214" s="6" t="s">
@@ -5409,7 +5435,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>374</v>
       </c>
@@ -5420,7 +5446,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>376</v>
       </c>
@@ -5431,7 +5457,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>378</v>
       </c>
@@ -5442,7 +5468,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>380</v>
       </c>
@@ -5453,7 +5479,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>382</v>
       </c>
@@ -5464,7 +5490,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>384</v>
       </c>
@@ -5475,7 +5501,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>386</v>
       </c>
@@ -5486,7 +5512,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>388</v>
       </c>
@@ -5497,18 +5523,19 @@
         <v>389</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" s="2" t="s">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="30" t="s">
         <v>390</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B233" s="31" t="s">
         <v>391</v>
       </c>
-      <c r="C233" s="6" t="s">
+      <c r="C233" s="32" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D233" s="31"/>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>392</v>
       </c>
@@ -5519,7 +5546,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>394</v>
       </c>
@@ -5530,7 +5557,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>396</v>
       </c>
@@ -5541,7 +5568,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>398</v>
       </c>
@@ -5552,7 +5579,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>400</v>
       </c>
@@ -5563,7 +5590,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>402</v>
       </c>
@@ -5574,7 +5601,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>404</v>
       </c>
@@ -5732,7 +5759,7 @@
       <c r="A254" s="7" t="s">
         <v>806</v>
       </c>
-      <c r="B254" s="11" t="s">
+      <c r="B254" t="s">
         <v>807</v>
       </c>
       <c r="C254" s="6" t="s">
@@ -5743,7 +5770,7 @@
       <c r="A255" s="7" t="s">
         <v>808</v>
       </c>
-      <c r="B255" s="11" t="s">
+      <c r="B255" t="s">
         <v>809</v>
       </c>
       <c r="C255" s="6" t="s">
@@ -5751,79 +5778,79 @@
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A256" s="14" t="s">
+      <c r="A256" s="13" t="s">
         <v>432</v>
       </c>
-      <c r="B256" s="15" t="s">
+      <c r="B256" s="14" t="s">
         <v>433</v>
       </c>
-      <c r="C256" s="16" t="s">
+      <c r="C256" s="15" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257" s="14" t="s">
+      <c r="A257" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="B257" s="15" t="s">
+      <c r="B257" s="14" t="s">
         <v>435</v>
       </c>
-      <c r="C257" s="16" t="s">
+      <c r="C257" s="15" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258" s="14" t="s">
+      <c r="A258" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="B258" s="15" t="s">
+      <c r="B258" s="14" t="s">
         <v>437</v>
       </c>
-      <c r="C258" s="16" t="s">
+      <c r="C258" s="15" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259" s="14" t="s">
+      <c r="A259" s="13" t="s">
         <v>438</v>
       </c>
-      <c r="B259" s="15" t="s">
+      <c r="B259" s="14" t="s">
         <v>439</v>
       </c>
-      <c r="C259" s="16" t="s">
+      <c r="C259" s="15" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260" s="14" t="s">
+      <c r="A260" s="13" t="s">
         <v>440</v>
       </c>
-      <c r="B260" s="15" t="s">
+      <c r="B260" s="14" t="s">
         <v>441</v>
       </c>
-      <c r="C260" s="16" t="s">
+      <c r="C260" s="15" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261" s="17" t="s">
+      <c r="A261" s="16" t="s">
         <v>442</v>
       </c>
-      <c r="B261" s="18" t="s">
+      <c r="B261" s="17" t="s">
         <v>443</v>
       </c>
-      <c r="C261" s="16" t="s">
+      <c r="C261" s="15" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A262" s="14" t="s">
+      <c r="A262" s="13" t="s">
         <v>444</v>
       </c>
-      <c r="B262" s="15" t="s">
+      <c r="B262" s="14" t="s">
         <v>445</v>
       </c>
-      <c r="C262" s="16" t="s">
+      <c r="C262" s="15" t="s">
         <v>445</v>
       </c>
     </row>
@@ -6235,24 +6262,24 @@
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A300" s="19" t="s">
+      <c r="A300" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="B300" s="11" t="s">
+      <c r="B300" t="s">
         <v>521</v>
       </c>
-      <c r="C300" s="20" t="s">
+      <c r="C300" s="18" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A301" s="19" t="s">
+      <c r="A301" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="B301" s="11" t="s">
+      <c r="B301" t="s">
         <v>523</v>
       </c>
-      <c r="C301" s="20" t="s">
+      <c r="C301" s="18" t="s">
         <v>523</v>
       </c>
     </row>
@@ -6631,10 +6658,10 @@
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A336" s="14" t="s">
+      <c r="A336" s="13" t="s">
         <v>592</v>
       </c>
-      <c r="B336" s="15" t="s">
+      <c r="B336" s="14" t="s">
         <v>593</v>
       </c>
       <c r="C336" s="6" t="s">
@@ -6642,10 +6669,10 @@
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A337" s="14" t="s">
+      <c r="A337" s="13" t="s">
         <v>594</v>
       </c>
-      <c r="B337" s="15" t="s">
+      <c r="B337" s="14" t="s">
         <v>595</v>
       </c>
       <c r="C337" s="6" t="s">
@@ -6653,10 +6680,10 @@
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A338" s="14" t="s">
+      <c r="A338" s="13" t="s">
         <v>596</v>
       </c>
-      <c r="B338" s="15" t="s">
+      <c r="B338" s="14" t="s">
         <v>597</v>
       </c>
       <c r="C338" s="6" t="s">
@@ -6664,10 +6691,10 @@
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A339" s="14" t="s">
+      <c r="A339" s="13" t="s">
         <v>598</v>
       </c>
-      <c r="B339" s="15" t="s">
+      <c r="B339" s="14" t="s">
         <v>599</v>
       </c>
       <c r="C339" s="6" t="s">
@@ -6675,10 +6702,10 @@
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A340" s="14" t="s">
+      <c r="A340" s="13" t="s">
         <v>600</v>
       </c>
-      <c r="B340" s="15" t="s">
+      <c r="B340" s="14" t="s">
         <v>601</v>
       </c>
       <c r="C340" s="6" t="s">
@@ -6686,10 +6713,10 @@
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A341" s="14" t="s">
+      <c r="A341" s="13" t="s">
         <v>602</v>
       </c>
-      <c r="B341" s="15" t="s">
+      <c r="B341" s="14" t="s">
         <v>603</v>
       </c>
       <c r="C341" s="6" t="s">
@@ -6697,10 +6724,10 @@
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A342" s="14" t="s">
+      <c r="A342" s="13" t="s">
         <v>604</v>
       </c>
-      <c r="B342" s="15" t="s">
+      <c r="B342" s="14" t="s">
         <v>605</v>
       </c>
       <c r="C342" s="6" t="s">
@@ -6708,10 +6735,10 @@
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A343" s="31" t="s">
+      <c r="A343" s="28" t="s">
         <v>606</v>
       </c>
-      <c r="B343" s="32" t="s">
+      <c r="B343" s="29" t="s">
         <v>607</v>
       </c>
       <c r="C343" s="6" t="s">
@@ -6719,10 +6746,10 @@
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A344" s="14" t="s">
+      <c r="A344" s="13" t="s">
         <v>608</v>
       </c>
-      <c r="B344" s="15" t="s">
+      <c r="B344" s="14" t="s">
         <v>609</v>
       </c>
       <c r="C344" s="6" t="s">
@@ -6730,10 +6757,10 @@
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A345" s="14" t="s">
+      <c r="A345" s="13" t="s">
         <v>610</v>
       </c>
-      <c r="B345" s="15" t="s">
+      <c r="B345" s="14" t="s">
         <v>611</v>
       </c>
       <c r="C345" s="6" t="s">
@@ -6741,10 +6768,10 @@
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A346" s="14" t="s">
+      <c r="A346" s="13" t="s">
         <v>612</v>
       </c>
-      <c r="B346" s="15" t="s">
+      <c r="B346" s="14" t="s">
         <v>613</v>
       </c>
       <c r="C346" s="6" t="s">
@@ -6752,10 +6779,10 @@
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A347" s="14" t="s">
+      <c r="A347" s="13" t="s">
         <v>614</v>
       </c>
-      <c r="B347" s="15" t="s">
+      <c r="B347" s="14" t="s">
         <v>615</v>
       </c>
       <c r="C347" s="6" t="s">
@@ -6763,10 +6790,10 @@
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A348" s="14" t="s">
+      <c r="A348" s="13" t="s">
         <v>616</v>
       </c>
-      <c r="B348" s="15" t="s">
+      <c r="B348" s="14" t="s">
         <v>617</v>
       </c>
       <c r="C348" s="6" t="s">
@@ -6774,10 +6801,10 @@
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A349" s="14" t="s">
+      <c r="A349" s="13" t="s">
         <v>618</v>
       </c>
-      <c r="B349" s="15" t="s">
+      <c r="B349" s="14" t="s">
         <v>619</v>
       </c>
       <c r="C349" s="6" t="s">
@@ -6785,10 +6812,10 @@
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A350" s="14" t="s">
+      <c r="A350" s="13" t="s">
         <v>620</v>
       </c>
-      <c r="B350" s="15" t="s">
+      <c r="B350" s="14" t="s">
         <v>621</v>
       </c>
       <c r="C350" s="6" t="s">
@@ -6796,10 +6823,10 @@
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A351" s="14" t="s">
+      <c r="A351" s="13" t="s">
         <v>622</v>
       </c>
-      <c r="B351" s="15" t="s">
+      <c r="B351" s="14" t="s">
         <v>623</v>
       </c>
       <c r="C351" s="6" t="s">
@@ -6807,10 +6834,10 @@
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A352" s="14" t="s">
+      <c r="A352" s="13" t="s">
         <v>624</v>
       </c>
-      <c r="B352" s="15" t="s">
+      <c r="B352" s="14" t="s">
         <v>625</v>
       </c>
       <c r="C352" s="6" t="s">
@@ -6818,10 +6845,10 @@
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A353" s="14" t="s">
+      <c r="A353" s="13" t="s">
         <v>626</v>
       </c>
-      <c r="B353" s="15" t="s">
+      <c r="B353" s="14" t="s">
         <v>627</v>
       </c>
       <c r="C353" s="6" t="s">
@@ -6829,10 +6856,10 @@
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A354" s="14" t="s">
+      <c r="A354" s="13" t="s">
         <v>628</v>
       </c>
-      <c r="B354" s="15" t="s">
+      <c r="B354" s="14" t="s">
         <v>629</v>
       </c>
       <c r="C354" s="6" t="s">
@@ -6840,10 +6867,10 @@
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A355" s="14" t="s">
+      <c r="A355" s="13" t="s">
         <v>630</v>
       </c>
-      <c r="B355" s="15" t="s">
+      <c r="B355" s="14" t="s">
         <v>631</v>
       </c>
       <c r="C355" s="6" t="s">
@@ -6851,10 +6878,10 @@
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A356" s="14" t="s">
+      <c r="A356" s="13" t="s">
         <v>632</v>
       </c>
-      <c r="B356" s="15" t="s">
+      <c r="B356" s="14" t="s">
         <v>633</v>
       </c>
       <c r="C356" s="6" t="s">
@@ -6862,10 +6889,10 @@
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A357" s="14" t="s">
+      <c r="A357" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="B357" s="15" t="s">
+      <c r="B357" s="14" t="s">
         <v>635</v>
       </c>
       <c r="C357" s="6" t="s">
@@ -6873,10 +6900,10 @@
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A358" s="14" t="s">
+      <c r="A358" s="13" t="s">
         <v>636</v>
       </c>
-      <c r="B358" s="15" t="s">
+      <c r="B358" s="14" t="s">
         <v>637</v>
       </c>
       <c r="C358" s="6" t="s">
@@ -6884,10 +6911,10 @@
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A359" s="14" t="s">
+      <c r="A359" s="13" t="s">
         <v>638</v>
       </c>
-      <c r="B359" s="15" t="s">
+      <c r="B359" s="14" t="s">
         <v>639</v>
       </c>
       <c r="C359" s="6" t="s">
@@ -6895,10 +6922,10 @@
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A360" s="14" t="s">
+      <c r="A360" s="13" t="s">
         <v>640</v>
       </c>
-      <c r="B360" s="15" t="s">
+      <c r="B360" s="14" t="s">
         <v>641</v>
       </c>
       <c r="C360" s="6" t="s">
@@ -6906,10 +6933,10 @@
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A361" s="31" t="s">
+      <c r="A361" s="28" t="s">
         <v>642</v>
       </c>
-      <c r="B361" s="32" t="s">
+      <c r="B361" s="29" t="s">
         <v>643</v>
       </c>
       <c r="C361" s="6" t="s">
@@ -6917,10 +6944,10 @@
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A362" s="14" t="s">
+      <c r="A362" s="13" t="s">
         <v>644</v>
       </c>
-      <c r="B362" s="15" t="s">
+      <c r="B362" s="14" t="s">
         <v>645</v>
       </c>
       <c r="C362" s="6" t="s">
@@ -6928,10 +6955,10 @@
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A363" s="14" t="s">
+      <c r="A363" s="13" t="s">
         <v>646</v>
       </c>
-      <c r="B363" s="15" t="s">
+      <c r="B363" s="14" t="s">
         <v>647</v>
       </c>
       <c r="C363" s="6" t="s">
@@ -6939,10 +6966,10 @@
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A364" s="14" t="s">
+      <c r="A364" s="13" t="s">
         <v>648</v>
       </c>
-      <c r="B364" s="15" t="s">
+      <c r="B364" s="14" t="s">
         <v>649</v>
       </c>
       <c r="C364" s="6" t="s">
@@ -6950,10 +6977,10 @@
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A365" s="14" t="s">
+      <c r="A365" s="13" t="s">
         <v>650</v>
       </c>
-      <c r="B365" s="15" t="s">
+      <c r="B365" s="14" t="s">
         <v>651</v>
       </c>
       <c r="C365" s="6" t="s">
@@ -6961,10 +6988,10 @@
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A366" s="14" t="s">
+      <c r="A366" s="13" t="s">
         <v>652</v>
       </c>
-      <c r="B366" s="15" t="s">
+      <c r="B366" s="14" t="s">
         <v>653</v>
       </c>
       <c r="C366" s="6" t="s">
@@ -6972,10 +6999,10 @@
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A367" s="14" t="s">
+      <c r="A367" s="13" t="s">
         <v>654</v>
       </c>
-      <c r="B367" s="15" t="s">
+      <c r="B367" s="14" t="s">
         <v>655</v>
       </c>
       <c r="C367" s="6" t="s">
@@ -6983,10 +7010,10 @@
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A368" s="14" t="s">
+      <c r="A368" s="13" t="s">
         <v>656</v>
       </c>
-      <c r="B368" s="15" t="s">
+      <c r="B368" s="14" t="s">
         <v>657</v>
       </c>
       <c r="C368" s="6" t="s">
@@ -6994,10 +7021,10 @@
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A369" s="14" t="s">
+      <c r="A369" s="13" t="s">
         <v>658</v>
       </c>
-      <c r="B369" s="15" t="s">
+      <c r="B369" s="14" t="s">
         <v>659</v>
       </c>
       <c r="C369" s="6" t="s">
@@ -7005,10 +7032,10 @@
       </c>
     </row>
     <row r="370" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A370" s="14" t="s">
+      <c r="A370" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="B370" s="15" t="s">
+      <c r="B370" s="14" t="s">
         <v>661</v>
       </c>
       <c r="C370" s="6" t="s">
@@ -7016,10 +7043,10 @@
       </c>
     </row>
     <row r="371" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A371" s="14" t="s">
+      <c r="A371" s="13" t="s">
         <v>662</v>
       </c>
-      <c r="B371" s="15" t="s">
+      <c r="B371" s="14" t="s">
         <v>663</v>
       </c>
       <c r="C371" s="6" t="s">
@@ -7027,10 +7054,10 @@
       </c>
     </row>
     <row r="372" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A372" s="14" t="s">
+      <c r="A372" s="13" t="s">
         <v>664</v>
       </c>
-      <c r="B372" s="15" t="s">
+      <c r="B372" s="14" t="s">
         <v>665</v>
       </c>
       <c r="C372" s="6" t="s">
@@ -7038,10 +7065,10 @@
       </c>
     </row>
     <row r="373" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A373" s="14" t="s">
+      <c r="A373" s="13" t="s">
         <v>666</v>
       </c>
-      <c r="B373" s="15" t="s">
+      <c r="B373" s="14" t="s">
         <v>667</v>
       </c>
       <c r="C373" s="6" t="s">
@@ -7049,10 +7076,10 @@
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A374" s="14" t="s">
+      <c r="A374" s="13" t="s">
         <v>668</v>
       </c>
-      <c r="B374" s="15" t="s">
+      <c r="B374" s="14" t="s">
         <v>669</v>
       </c>
       <c r="C374" s="6" t="s">
@@ -7060,10 +7087,10 @@
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A375" s="14" t="s">
+      <c r="A375" s="13" t="s">
         <v>670</v>
       </c>
-      <c r="B375" s="15" t="s">
+      <c r="B375" s="14" t="s">
         <v>671</v>
       </c>
       <c r="C375" s="6" t="s">
@@ -7071,10 +7098,10 @@
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A376" s="14" t="s">
+      <c r="A376" s="13" t="s">
         <v>672</v>
       </c>
-      <c r="B376" s="15" t="s">
+      <c r="B376" s="14" t="s">
         <v>673</v>
       </c>
       <c r="C376" s="6" t="s">
@@ -7082,10 +7109,10 @@
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A377" s="14" t="s">
+      <c r="A377" s="13" t="s">
         <v>674</v>
       </c>
-      <c r="B377" s="15" t="s">
+      <c r="B377" s="14" t="s">
         <v>675</v>
       </c>
       <c r="C377" s="6" t="s">
@@ -7093,10 +7120,10 @@
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A378" s="14" t="s">
+      <c r="A378" s="13" t="s">
         <v>676</v>
       </c>
-      <c r="B378" s="15" t="s">
+      <c r="B378" s="14" t="s">
         <v>677</v>
       </c>
       <c r="C378" s="6" t="s">
@@ -7104,10 +7131,10 @@
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A379" s="14" t="s">
+      <c r="A379" s="13" t="s">
         <v>678</v>
       </c>
-      <c r="B379" s="15" t="s">
+      <c r="B379" s="14" t="s">
         <v>679</v>
       </c>
       <c r="C379" s="6" t="s">
@@ -7115,10 +7142,10 @@
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A380" s="14" t="s">
+      <c r="A380" s="13" t="s">
         <v>680</v>
       </c>
-      <c r="B380" s="15" t="s">
+      <c r="B380" s="14" t="s">
         <v>681</v>
       </c>
       <c r="C380" s="6" t="s">
@@ -7126,10 +7153,10 @@
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A381" s="14" t="s">
+      <c r="A381" s="13" t="s">
         <v>682</v>
       </c>
-      <c r="B381" s="15" t="s">
+      <c r="B381" s="14" t="s">
         <v>683</v>
       </c>
       <c r="C381" s="6" t="s">
@@ -7137,10 +7164,10 @@
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A382" s="14" t="s">
+      <c r="A382" s="13" t="s">
         <v>684</v>
       </c>
-      <c r="B382" s="15" t="s">
+      <c r="B382" s="14" t="s">
         <v>685</v>
       </c>
       <c r="C382" s="6" t="s">
@@ -7148,10 +7175,10 @@
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A383" s="14" t="s">
+      <c r="A383" s="13" t="s">
         <v>686</v>
       </c>
-      <c r="B383" s="15" t="s">
+      <c r="B383" s="14" t="s">
         <v>687</v>
       </c>
       <c r="C383" s="6" t="s">
@@ -7159,10 +7186,10 @@
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A384" s="14" t="s">
+      <c r="A384" s="13" t="s">
         <v>688</v>
       </c>
-      <c r="B384" s="15" t="s">
+      <c r="B384" s="14" t="s">
         <v>689</v>
       </c>
       <c r="C384" s="6" t="s">
@@ -7170,10 +7197,10 @@
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A385" s="14" t="s">
+      <c r="A385" s="13" t="s">
         <v>690</v>
       </c>
-      <c r="B385" s="15" t="s">
+      <c r="B385" s="14" t="s">
         <v>691</v>
       </c>
       <c r="C385" s="6" t="s">
@@ -7181,10 +7208,10 @@
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A386" s="14" t="s">
+      <c r="A386" s="13" t="s">
         <v>692</v>
       </c>
-      <c r="B386" s="15" t="s">
+      <c r="B386" s="14" t="s">
         <v>693</v>
       </c>
       <c r="C386" s="6" t="s">
@@ -7192,10 +7219,10 @@
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A387" s="19" t="s">
+      <c r="A387" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="B387" s="11" t="s">
+      <c r="B387" t="s">
         <v>695</v>
       </c>
       <c r="C387" s="6" t="s">
@@ -7203,10 +7230,10 @@
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A388" s="19" t="s">
+      <c r="A388" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="B388" s="11" t="s">
+      <c r="B388" t="s">
         <v>697</v>
       </c>
       <c r="C388" s="6" t="s">
@@ -7214,10 +7241,10 @@
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A389" s="19" t="s">
+      <c r="A389" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="B389" s="11" t="s">
+      <c r="B389" t="s">
         <v>699</v>
       </c>
       <c r="C389" s="6" t="s">
@@ -7225,10 +7252,10 @@
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A390" s="19" t="s">
+      <c r="A390" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="B390" s="11" t="s">
+      <c r="B390" t="s">
         <v>695</v>
       </c>
       <c r="C390" s="6" t="s">
@@ -7236,10 +7263,10 @@
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A391" s="19" t="s">
+      <c r="A391" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="B391" s="11" t="s">
+      <c r="B391" t="s">
         <v>702</v>
       </c>
       <c r="C391" s="6" t="s">
@@ -7247,10 +7274,10 @@
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A392" s="19" t="s">
+      <c r="A392" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="B392" s="11" t="s">
+      <c r="B392" t="s">
         <v>697</v>
       </c>
       <c r="C392" s="6" t="s">
@@ -7258,10 +7285,10 @@
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A393" s="19" t="s">
+      <c r="A393" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="B393" s="11" t="s">
+      <c r="B393" t="s">
         <v>705</v>
       </c>
       <c r="C393" s="6" t="s">
@@ -7269,10 +7296,10 @@
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A394" s="19" t="s">
+      <c r="A394" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="B394" s="11" t="s">
+      <c r="B394" t="s">
         <v>707</v>
       </c>
       <c r="C394" s="6" t="s">
@@ -7280,10 +7307,10 @@
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A395" s="19" t="s">
+      <c r="A395" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="B395" s="11" t="s">
+      <c r="B395" t="s">
         <v>709</v>
       </c>
       <c r="C395" s="6" t="s">
@@ -7291,10 +7318,10 @@
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A396" s="19" t="s">
+      <c r="A396" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="B396" s="11" t="s">
+      <c r="B396" t="s">
         <v>711</v>
       </c>
       <c r="C396" s="6" t="s">
@@ -7302,10 +7329,10 @@
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A397" s="19" t="s">
+      <c r="A397" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="B397" s="11" t="s">
+      <c r="B397" t="s">
         <v>713</v>
       </c>
       <c r="C397" s="6" t="s">
@@ -7313,10 +7340,10 @@
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A398" s="19" t="s">
+      <c r="A398" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="B398" s="11" t="s">
+      <c r="B398" t="s">
         <v>715</v>
       </c>
       <c r="C398" s="6" t="s">
@@ -7324,10 +7351,10 @@
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A399" s="19" t="s">
+      <c r="A399" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="B399" s="11" t="s">
+      <c r="B399" t="s">
         <v>717</v>
       </c>
       <c r="C399" s="6" t="s">
@@ -7335,10 +7362,10 @@
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A400" s="19" t="s">
+      <c r="A400" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="B400" s="11" t="s">
+      <c r="B400" t="s">
         <v>719</v>
       </c>
       <c r="C400" s="6" t="s">
@@ -7346,10 +7373,10 @@
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A401" s="19" t="s">
+      <c r="A401" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="B401" s="11" t="s">
+      <c r="B401" t="s">
         <v>721</v>
       </c>
       <c r="C401" s="6" t="s">
@@ -7357,10 +7384,10 @@
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A402" s="21" t="s">
+      <c r="A402" s="19" t="s">
         <v>722</v>
       </c>
-      <c r="B402" s="22" t="s">
+      <c r="B402" s="20" t="s">
         <v>723</v>
       </c>
       <c r="C402" s="6" t="s">
@@ -7368,10 +7395,10 @@
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A403" s="21" t="s">
+      <c r="A403" s="19" t="s">
         <v>724</v>
       </c>
-      <c r="B403" s="22" t="s">
+      <c r="B403" s="20" t="s">
         <v>725</v>
       </c>
       <c r="C403" s="6" t="s">
@@ -7379,10 +7406,10 @@
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A404" s="21" t="s">
+      <c r="A404" s="19" t="s">
         <v>726</v>
       </c>
-      <c r="B404" s="22" t="s">
+      <c r="B404" s="20" t="s">
         <v>727</v>
       </c>
       <c r="C404" s="6" t="s">
@@ -7390,10 +7417,10 @@
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A405" s="21" t="s">
+      <c r="A405" s="19" t="s">
         <v>728</v>
       </c>
-      <c r="B405" s="22" t="s">
+      <c r="B405" s="20" t="s">
         <v>729</v>
       </c>
       <c r="C405" s="6" t="s">
@@ -7401,10 +7428,10 @@
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A406" s="21" t="s">
+      <c r="A406" s="19" t="s">
         <v>730</v>
       </c>
-      <c r="B406" s="22" t="s">
+      <c r="B406" s="20" t="s">
         <v>731</v>
       </c>
       <c r="C406" s="6" t="s">
@@ -7412,10 +7439,10 @@
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A407" s="21" t="s">
+      <c r="A407" s="19" t="s">
         <v>732</v>
       </c>
-      <c r="B407" s="22" t="s">
+      <c r="B407" s="20" t="s">
         <v>733</v>
       </c>
       <c r="C407" s="6" t="s">
@@ -7423,10 +7450,10 @@
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A408" s="21" t="s">
+      <c r="A408" s="19" t="s">
         <v>734</v>
       </c>
-      <c r="B408" s="22" t="s">
+      <c r="B408" s="20" t="s">
         <v>735</v>
       </c>
       <c r="C408" s="6" t="s">
@@ -7434,10 +7461,10 @@
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A409" s="21" t="s">
+      <c r="A409" s="19" t="s">
         <v>736</v>
       </c>
-      <c r="B409" s="22" t="s">
+      <c r="B409" s="20" t="s">
         <v>737</v>
       </c>
       <c r="C409" s="6" t="s">
@@ -7445,10 +7472,10 @@
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A410" s="21" t="s">
+      <c r="A410" s="19" t="s">
         <v>738</v>
       </c>
-      <c r="B410" s="22" t="s">
+      <c r="B410" s="20" t="s">
         <v>739</v>
       </c>
       <c r="C410" s="6" t="s">
@@ -7456,10 +7483,10 @@
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A411" s="21" t="s">
+      <c r="A411" s="19" t="s">
         <v>740</v>
       </c>
-      <c r="B411" s="22" t="s">
+      <c r="B411" s="20" t="s">
         <v>741</v>
       </c>
       <c r="C411" s="6" t="s">
@@ -7467,10 +7494,10 @@
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A412" s="21" t="s">
+      <c r="A412" s="19" t="s">
         <v>742</v>
       </c>
-      <c r="B412" s="22" t="s">
+      <c r="B412" s="20" t="s">
         <v>743</v>
       </c>
       <c r="C412" s="6" t="s">
@@ -7478,10 +7505,10 @@
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A413" s="21" t="s">
+      <c r="A413" s="19" t="s">
         <v>744</v>
       </c>
-      <c r="B413" s="22" t="s">
+      <c r="B413" s="20" t="s">
         <v>745</v>
       </c>
       <c r="C413" s="6" t="s">
@@ -7489,10 +7516,10 @@
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A414" s="21" t="s">
+      <c r="A414" s="19" t="s">
         <v>746</v>
       </c>
-      <c r="B414" s="22" t="s">
+      <c r="B414" s="20" t="s">
         <v>747</v>
       </c>
       <c r="C414" s="6" t="s">
@@ -7500,10 +7527,10 @@
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A415" s="21" t="s">
+      <c r="A415" s="19" t="s">
         <v>748</v>
       </c>
-      <c r="B415" s="22" t="s">
+      <c r="B415" s="20" t="s">
         <v>685</v>
       </c>
       <c r="C415" s="6" t="s">
@@ -7511,10 +7538,10 @@
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A416" s="21" t="s">
+      <c r="A416" s="19" t="s">
         <v>749</v>
       </c>
-      <c r="B416" s="22" t="s">
+      <c r="B416" s="20" t="s">
         <v>750</v>
       </c>
       <c r="C416" s="6" t="s">
@@ -8171,15 +8198,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="c23bcc05-bb70-448c-b869-ca05feb44454">
@@ -8188,6 +8206,15 @@
     <TaxCatchAll xmlns="636f7450-4f64-45f7-aa6c-f98af71a66c2" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8210,14 +8237,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E53F91D-97D2-4FE5-AD82-6DEDCCC3F538}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91245656-897C-449F-90EF-DC9D9784F31E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -8226,4 +8245,18 @@
     <ds:schemaRef ds:uri="636f7450-4f64-45f7-aa6c-f98af71a66c2"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E53F91D-97D2-4FE5-AD82-6DEDCCC3F538}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{606f0524-4d06-4e22-b4bf-bab7136a00b5}" enabled="1" method="Privileged" siteId="{76a44f63-6cdc-4ea8-9a0e-68f3ee771f42}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>